--- a/notebooks/RGS9/input/RGS9_PERRS1_individuals.xlsx
+++ b/notebooks/RGS9/input/RGS9_PERRS1_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/RGS9/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8578DFFD-E49C-6C43-9CE1-F283C992161D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0D695C-12EC-FE4E-88C2-410CC1EB992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="33480" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
   <si>
     <t>PMID</t>
   </si>
@@ -145,6 +145,9 @@
     <t>c.895T&gt;C</t>
   </si>
   <si>
+    <t>observed</t>
+  </si>
+  <si>
     <t>Childhood onset</t>
   </si>
   <si>
@@ -185,6 +188,15 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>Nystagmus</t>
+  </si>
+  <si>
+    <t>HP:0000639</t>
+  </si>
+  <si>
+    <t>excluded</t>
   </si>
 </sst>
 </file>
@@ -564,15 +576,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,8 +648,11 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -701,8 +716,11 @@
       <c r="U2" t="s">
         <v>36</v>
       </c>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -710,7 +728,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -737,34 +755,37 @@
         <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
         <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q3" t="s">
         <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -772,7 +793,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
@@ -796,34 +817,37 @@
         <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
         <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q4" t="s">
         <v>32</v>
       </c>
       <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" t="s">
         <v>41</v>
       </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -831,7 +855,7 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -855,34 +879,37 @@
         <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="s">
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="V5" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -890,7 +917,7 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -914,42 +941,45 @@
         <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q6" t="s">
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="V6" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -970,37 +1000,40 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
         <v>50</v>
       </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
         <v>53</v>
-      </c>
-      <c r="O7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P7" t="s">
-        <v>52</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="V7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
